--- a/data/Cunco.xlsx
+++ b/data/Cunco.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mini Central Hidroeléctrica Santa Olga</t>
+          <t>Minihidro Santa Olga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155398302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Hortensias</t>
+          <t>Mini Central Hidroeléctrica Santa Olga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE LAVANDA SPA</t>
+          <t>Sociedad Hidroelectrica Santa Olga SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11000</v>
+        <v>53000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Curaco</t>
+          <t>Parque Fotovoltaico Las Hortensias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>ENERGIA RENOVABLE LAVANDA SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/02/2019</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137496738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minihidro Santa Olga</t>
+          <t>Ampliación Piscicultura Curaco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad Hidroelectrica Santa Olga SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>36000</v>
+        <v>3500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139211825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137496738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05/10/2017</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132736462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139211825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Proyecto Minicentral Hidroeléctrica de Pasada Río Cherquén</t>
+          <t>Minihidro Santa Olga</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Compañia Hidroeléctrica Cherquén S.A.</t>
+          <t>Sociedad Hidroelectrica Santa Olga SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>26600</v>
+        <v>36000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/10/2014</t>
+          <t>05/10/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129843379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132736462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Piscicultura Río Negro</t>
+          <t>Proyecto Minicentral Hidroeléctrica de Pasada Río Cherquén</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AQUASMOLT LIMITADA</t>
+          <t>Compañia Hidroeléctrica Cherquén S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4000</v>
+        <v>26600</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>20/10/2014</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128977454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129843379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Regularización de Embalse Santa Victoria</t>
+          <t>Piscicultura Río Negro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Agrícola Cunco S.A.</t>
+          <t>AQUASMOLT LIMITADA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>48</v>
+        <v>4000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128977454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada El Traro</t>
+          <t>Regularización de Embalse Santa Victoria</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aaktei Energía SpA</t>
+          <t>Agrícola Cunco S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13600</v>
+        <v>48</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09/08/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128438595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Diseño Mejoramiento y Ampliación Servicio Agua Potable Rural Unión Cordillera</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada El Traro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Unión Cordillera</t>
+          <t>Aaktei Energía SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5107</v>
+        <v>13600</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/11/2012</t>
+          <t>09/08/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128438595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Implementación sistema de ensilaje para el tratamiento de mortalidad en Piscicultura La Esperanza"</t>
+          <t>Diseño Mejoramiento y Ampliación Servicio Agua Potable Rural Unión Cordillera</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Piscicultura La Esperanza S.A.</t>
+          <t>Comité de Agua Potable Rural Unión Cordillera</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>5107</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/11/2012</t>
+          <t>23/11/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7499202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS Nº 90134</t>
+          <t>"Implementación sistema de ensilaje para el tratamiento de mortalidad en Piscicultura La Esperanza"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NOVATEC S.A.</t>
+          <t>Piscicultura La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/06/2012</t>
+          <t>19/11/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6990072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7499202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Llaima Cherquén, Sistema de Ensilaje</t>
+          <t>AUMENTO DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS Nº 90134</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ACUICOLA INMOBILIARIA E INVERSIONES ARAUCANIA LIMITADA</t>
+          <t>NOVATEC S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>15/06/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6826952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6990072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Modificación Piscicultura Llaima Cherquén, Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>ACUICOLA INMOBILIARIA E INVERSIONES ARAUCANIA LIMITADA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6826952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Curaco</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>29/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6650116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Modificación y Ampliación Piscicultura Curaco</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>29/02/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6650116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modificación al manejo de mortalidades mediante la Instalación de un Sistema de Ensilaje" de la Piscicultura Las Vertientes</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Australis Agua Dulce S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>30/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6095754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Comuna de Cunco</t>
+          <t>Modificación al manejo de mortalidades mediante la Instalación de un Sistema de Ensilaje" de la Piscicultura Las Vertientes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Cunco</t>
+          <t>Australis Agua Dulce S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2500</v>
+        <v>28</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/08/2011</t>
+          <t>30/09/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5880867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6095754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL MANEJO DE MORTALIDAD MEDIANTE LA INSTALACIÓN DE UN SISTEMA DE ENSILAJE DE PISCICULTURA LOS LAURELES</t>
+          <t>Plan de Cierre Vertedero Comuna de Cunco</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Universidad Católica de Temuco</t>
+          <t>I. Municipalidad de Cunco</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16/06/2011</t>
+          <t>08/08/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5731594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5880867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Linea de Transmisión en postes de Hormigón de 110 Kv Melipeuco-freire</t>
+          <t>MODIFICACIÓN AL MANEJO DE MORTALIDAD MEDIANTE LA INSTALACIÓN DE UN SISTEMA DE ENSILAJE DE PISCICULTURA LOS LAURELES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transmisora Valle Allipén S.A.</t>
+          <t>Universidad Católica de Temuco</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>17000</v>
+        <v>25</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16/03/2011</t>
+          <t>16/06/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5447936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5731594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación al manejo de mortalidad mediante la instalacion de un sistema de ensilaje Ensilaje Piscicultura Curacalco</t>
+          <t>Linea de Transmisión en postes de Hormigón de 110 Kv Melipeuco-freire</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Benchmark Chile SpA</t>
+          <t>Transmisora Valle Allipén S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>32</v>
+        <v>17000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/12/2010</t>
+          <t>16/03/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5151429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5447936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Línea de Transmisión en postes de hormigón de 110 Kv Melipeuco - Freire</t>
+          <t>Modificación al manejo de mortalidad mediante la instalacion de un sistema de ensilaje Ensilaje Piscicultura Curacalco</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ENACON S.A.</t>
+          <t>Benchmark Chile SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>17000</v>
+        <v>32</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/12/2010</t>
+          <t>13/12/2010</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5102929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5151429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA ALLIPEN</t>
+          <t>Línea de Transmisión en postes de hormigón de 110 Kv Melipeuco - Freire</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad Anónima Transmisora Valle Allipén.</t>
+          <t>ENACON S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>06/12/2010</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4955815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5102929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación Manejo de Lodos y Mortalidad</t>
+          <t>CENTRAL HIDROELÉCTRICA ALLIPEN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NOVATEC S.A.</t>
+          <t>Sociedad Anónima Transmisora Valle Allipén.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>45</v>
+        <v>5500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4647550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4955815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación Manejo de Lodos y Mortalidad</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>NOVATEC S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4647550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Piscicultura Confluencia (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AQUASMOLT LIMITADA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2600</v>
+        <v>22</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3680562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Central de Pasada Allipén (e-seia)</t>
+          <t>Proyecto Piscicultura Confluencia (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ENACON S.A.</t>
+          <t>AQUASMOLT LIMITADA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>34000</v>
+        <v>2600</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/01/2009</t>
+          <t>11/05/2009</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3680562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Central de Pasada Allipén (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENACON S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>34000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>21/01/2009</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Regularización y Ampliación Piscicultura Los Laureles (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Universidad Católica de Temuco</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2743813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Piscicultura La Esperanza (reingreso) (e-seia)</t>
+          <t>Regularización y Ampliación Piscicultura Los Laureles (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Nelson Patricio Gasaly Hanuch</t>
+          <t>Universidad Católica de Temuco</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>28/11/2007</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2530909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2743813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Piscicultura La Esperanza (reingreso) (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Nelson Patricio Gasaly Hanuch</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>234</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>28/11/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2530909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica El Manzano (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>José Pedro Fuentes De la Sotta</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7396</v>
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2277961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Piscicultura La Esperanza (e-seia)</t>
+          <t>Minicentral Hidroeléctrica El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nelson Patricio Gasaly Hanuch</t>
+          <t>José Pedro Fuentes De la Sotta</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>7396</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>27/07/2007</t>
+          <t>30/08/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2277961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Piscicultura La Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Nelson Patricio Gasaly Hanuch</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>27/07/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Piscicultura Acuacultivos Las Vertientes Limitada (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Australis Agua Dulce S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16/05/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Piscicultura Acuacultivos Las Vertientes Ltda (e-seia)</t>
+          <t>Piscicultura Acuacultivos Las Vertientes Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Acuacultivos Las Vertientes Limitada</t>
+          <t>Australis Agua Dulce S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17/04/2007</t>
+          <t>16/05/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2089323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Piscicultura Río Codihue, Centro Tres Horquetas, Cunco (e-seia)</t>
+          <t>Piscicultura Acuacultivos Las Vertientes Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>John Aleck Kleinsteuber Wilson</t>
+          <t>Acuacultivos Las Vertientes Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21/03/2007</t>
+          <t>17/04/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2022207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2089323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Piscicultura Río Codihue, Centro Tres Horquetas, Cunco (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>John Aleck Kleinsteuber Wilson</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>21/03/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2022207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PISCICULTURA ACUACULTIVOS LAS VERTIENTES LTDA., COMUNA DE CUNCO, PROVINCIA DE CAUTÍN, IX REGIÓN (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Acuacultivos Las Vertientes Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1820379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Piscicultura Rio Huichahue Piscicultura Río Huichahue Cunco (e-seia)</t>
+          <t>PISCICULTURA ACUACULTIVOS LAS VERTIENTES LTDA., COMUNA DE CUNCO, PROVINCIA DE CAUTÍN, IX REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Marco Boris Reinike Henke</t>
+          <t>Acuacultivos Las Vertientes Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>563</v>
+        <v>750</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>04/07/2006</t>
+          <t>23/11/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1520758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1820379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Piscicultura Rio Huichahue Piscicultura Río Huichahue Cunco (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Marco Boris Reinike Henke</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>04/07/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1520758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento Efluentes Piscicultura Curacalco IX Región (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Benchmark Chile SpA</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Proceso de Secado de Mineral (e-seia)</t>
+          <t>Modificación Sistema Tratamiento Efluentes Piscicultura Curacalco IX Región (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Andes Cordillera SpA</t>
+          <t>Benchmark Chile SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1838</v>
+        <v>350</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>13/04/2006</t>
+          <t>19/04/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Proceso de Secado de Mineral (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Andes Cordillera SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>500</v>
+        <v>1838</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>13/04/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Plan Regulador de la Comuna de Cunco (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Cunco</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Villa Santa María de Cunco (segunda presentación) (e-seia)</t>
+          <t>Plan Regulador de la Comuna de Cunco (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AGRICOLA Y FORESTAL CASAGRANDE LIMITADA</t>
+          <t>I. Municipalidad de Cunco</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1177331&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Establecimiento de Coto de Caza Mayor Sector Trafanpulli (e-seia)</t>
+          <t>Proyecto Inmobiliario Villa Santa María de Cunco (segunda presentación) (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Nevados del Caburgua</t>
+          <t>AGRICOLA Y FORESTAL CASAGRANDE LIMITADA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>645</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>28/09/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1041073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1177331&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Piscicultura El Manzano (e-seia)</t>
+          <t>Establecimiento de Coto de Caza Mayor Sector Trafanpulli (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Agrícola, Forestal y Ganadera el Manzano Grande Limitada</t>
+          <t>Nevados del Caburgua</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12/05/2005</t>
+          <t>28/09/2005</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=682915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1041073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Cunco (e-seia)</t>
+          <t>Piscicultura El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Agrícola, Forestal y Ganadera el Manzano Grande Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1210</v>
+        <v>600</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11/03/2005</t>
+          <t>12/05/2005</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=682915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Cunco (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>11/03/2005</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VILLA SANTA MARIA, CUNCO (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AGRICOLA Y FORESTAL CASAGRANDE LIMITADA</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>25/05/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=347981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROYECTO MINERO CAIVICO (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VILLA SANTA MARIA, CUNCO (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Andes Cordillera SpA</t>
+          <t>AGRICOLA Y FORESTAL CASAGRANDE LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>862</v>
+        <v>5500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12/02/2004</t>
+          <t>25/05/2004</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=280352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=347981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Piscicultura Curaco Sector la Esperanza Comuna de Cunco Provincia de Cautín Novena Región de Chile</t>
+          <t>PROYECTO MINERO CAIVICO (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>John Aleck Kleinsteuber Wilson</t>
+          <t>Andes Cordillera SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1600</v>
+        <v>862</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>12/02/2004</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=280352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Río Curacalco</t>
+          <t>Piscicultura Curaco Sector la Esperanza Comuna de Cunco Provincia de Cautín Novena Región de Chile</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Benchmark Chile SpA</t>
+          <t>John Aleck Kleinsteuber Wilson</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>27/07/2000</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas Localidad de los Laureles.</t>
+          <t>Instalación Piscicultura Río Curacalco</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Cunco</t>
+          <t>Benchmark Chile SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>880</v>
+        <v>300</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15/06/2000</t>
+          <t>27/07/2000</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Río Curacalco, Cunco</t>
+          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas Localidad de los Laureles.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pesquera Eicosal Ltda.</t>
+          <t>I. Municipalidad de Cunco</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>06/06/2000</t>
+          <t>15/06/2000</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Embalse Fundo Santa Victoria</t>
+          <t>Instalación Piscicultura Río Curacalco, Cunco</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Agrícola Cunco S.A.</t>
+          <t>Pesquera Eicosal Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/09/1999</t>
+          <t>06/06/2000</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Instalación Red de Alcantarillado Público Localidad de los Laureles</t>
+          <t>Embalse Fundo Santa Victoria</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Cunco</t>
+          <t>Agrícola Cunco S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>06/05/1999</t>
+          <t>10/09/1999</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,43 +3544,91 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>Instalación Red de Alcantarillado Público Localidad de los Laureles</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de Cunco</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>800</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>06/05/1999</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Cunco</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>Condominio Turístico Aguapiedra Ltda.</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Novena</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>Inmobiliaria Comercial y de Turismo Aguapiedra Ltda.</t>
         </is>
       </c>
-      <c r="F67" t="n">
+      <c r="F68" t="n">
         <v>100</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>06/01/1998</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=270&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Cunco</t>
         </is>

--- a/data/Cunco.xlsx
+++ b/data/Cunco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cunco.xlsx
+++ b/data/Cunco.xlsx
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transmisora Valle Allipén S.A.</t>
+          <t>Trasmisora Melipeuco S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">

--- a/data/Cunco.xlsx
+++ b/data/Cunco.xlsx
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Australis Agua Dulce S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Benchmark Chile SpA</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Australis Agua Dulce S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Benchmark Chile SpA</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Benchmark Chile SpA</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">

--- a/data/Cunco.xlsx
+++ b/data/Cunco.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NOVATEC S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NOVATEC S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>John Aleck Kleinsteuber Wilson</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
